--- a/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>74.50960334456221</v>
+        <v>75.61265240939254</v>
       </c>
     </row>
     <row r="3">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>46.82942598243223</v>
+        <v>47.52269439640553</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>75.61265240939254</v>
+        <v>75.55919705222209</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>75.55919705222209</v>
+        <v>75.5966977831971</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
@@ -644,37 +644,37 @@
         <v>61</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>29</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>32.22222222222222</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>31.11111111111111</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>63.33333333333333</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>18</v>
@@ -775,28 +775,28 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>32.72727272727273</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>25.45454545454545</v>
+        <v>24.56140350877193</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>41.81818181818181</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>58.18181818181818</v>
+        <v>56.14035087719298</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>41.81818181818181</v>
+        <v>43.85964912280701</v>
       </c>
     </row>
     <row r="3">
@@ -807,37 +807,37 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>31.42857142857143</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>40</v>
+        <v>29.72972972972973</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>40.54054054054054</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>28.57142857142857</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>71.42857142857143</v>
+        <v>70.27027027027027</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>28.57142857142857</v>
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="4">
@@ -850,37 +850,37 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>32.22222222222222</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>31.11111111111111</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>63.33333333333333</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
     </row>
   </sheetData>
@@ -934,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>10</v>
@@ -951,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>13</v>
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>16</v>
@@ -1187,37 +1187,37 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>32.22222222222222</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>31.11111111111111</v>
+        <v>30.85106382978723</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>63.33333333333333</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>36.66666666666666</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>25</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.529991822754045</v>
+        <v>4.508682239885829</v>
       </c>
     </row>
     <row r="3">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.920655771900423</v>
+        <v>5.935660916396547</v>
       </c>
     </row>
     <row r="4">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
     </row>
     <row r="5">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.45064759465447</v>
+        <v>10.44434315628238</v>
       </c>
     </row>
     <row r="6">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
     </row>
     <row r="7">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
     </row>
     <row r="8">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
     </row>
     <row r="9">
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
     <row r="10">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
     </row>
     <row r="11">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
   </sheetData>
@@ -1518,34 +1518,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.529991822754045</v>
+        <v>4.508682239885829</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.920655771900423</v>
+        <v>5.935660916396547</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.45064759465447</v>
+        <v>10.44434315628238</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
     <row r="5">
@@ -1555,34 +1555,34 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.529991822754045</v>
+        <v>4.508682239885829</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.920655771900423</v>
+        <v>5.935660916396547</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.45064759465447</v>
+        <v>10.44434315628238</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>75.5966977831971</v>
+        <v>75.59669778319709</v>
       </c>
     </row>
     <row r="3">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
     </row>
     <row r="4">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
     </row>
     <row r="5">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
     <row r="6">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
     </row>
     <row r="7">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
     <row r="8">

--- a/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -124,27 +125,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -176,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,10 +174,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -966,7 +944,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -988,6 +966,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>24.56140350877193</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>43.85964912280701</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>56.14035087719298</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>43.85964912280701</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>29.72972972972973</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>40.54054054054054</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>29.72972972972973</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>70.27027027027027</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>29.72972972972973</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1262,13 +1418,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,138 +1433,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B4" s="4" t="n">
         <v>4.508682239885829</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="C4" s="4" t="n">
         <v>5.935660916396547</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>3.935453453716624</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>10.44434315628238</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>3.935453453716624</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>31.35428380642543</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>41.27778074600292</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="I4" s="4" t="n">
         <v>27.36793544757166</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>72.63206455242835</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>27.36793544757166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1429,19 +1584,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="12" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1497,11 +1652,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1514,97 +1665,110 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
-        <v>61</v>
+      <c r="A4" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.508682239885829</v>
+        <v>2.628313627068418</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.935660916396547</v>
+        <v>2.610393189678868</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>3.935453453716624</v>
+        <v>2.614769156933783</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.44434315628238</v>
+        <v>5.238706816747286</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.935453453716624</v>
+        <v>2.614769156933783</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>31.35428380642543</v>
+        <v>33.46688314673074</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.27778074600292</v>
+        <v>33.2386983601521</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.36793544757166</v>
+        <v>33.29441849311716</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>72.63206455242835</v>
+        <v>66.70558150688285</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>27.36793544757166</v>
+        <v>33.29441849311716</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
+      <c r="A5" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.508682239885829</v>
+        <v>1.88036861281741</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.935660916396547</v>
+        <v>3.325267726717678</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>3.935453453716624</v>
+        <v>1.320684296782841</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.44434315628238</v>
+        <v>5.205636339535088</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.935453453716624</v>
+        <v>1.320684296782841</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>31.35428380642543</v>
+        <v>28.81207831490012</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.27778074600292</v>
+        <v>50.9516450695526</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.36793544757166</v>
+        <v>20.23627661554728</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>72.63206455242835</v>
+        <v>79.76372338445272</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>27.36793544757166</v>
+        <v>20.23627661554728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
+          <t>Area 61 Total</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.508682239885829</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.935660916396547</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>3.935453453716624</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.44434315628238</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.935453453716624</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>31.35428380642542</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.27778074600291</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.36793544757166</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>72.63206455242833</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>27.36793544757166</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1780,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,154 +1795,151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>75.59669778319709</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B4" s="4" t="n">
+        <v>76.13497089130404</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>31.35428380642543</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>41.27778074600292</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>27.36793544757166</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>72.63206455242835</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>27.36793544757166</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>47.52269439640553</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="H4" s="4" t="n">
+        <v>47.77801794459297</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>14.40111087248936</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>32.53381447256196</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>53.06507465494869</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>46.93492534505131</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="M4" s="4" t="n">
         <v>53.06507465494869</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_61_summary.xlsx
@@ -971,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,6 +1136,52 @@
       </c>
       <c r="N3" s="4" t="n">
         <v>29.72972972972973</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>30.85106382978723</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>30.85106382978723</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>38.29787234042553</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>61.70212765957447</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>38.29787234042553</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,77 +1850,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -1892,54 +1926,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>61</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>76.13497089130404</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>31.35428380642543</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>41.27778074600292</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>72.63206455242835</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>27.36793544757166</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>72.63206455242835</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>27.36793544757166</v>
+        <v>12.7964975153495</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.77801794459297</v>
+        <v>40.05109167507333</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.40111087248936</v>
+        <v>47.15241080957718</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>32.53381447256196</v>
+        <v>52.84758919042283</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>53.06507465494869</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>46.93492534505131</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>53.06507465494869</v>
+        <v>47.15241080957718</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
